--- a/DataBase/Consumos/consumos_PASADENA_18_01_2026.xlsx
+++ b/DataBase/Consumos/consumos_PASADENA_18_01_2026.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
-  <x:si>
-    <x:t>Desde: 01/01/2026 Hasta: 17/01/2026</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+  <x:si>
+    <x:t>Desde: 01/01/2026 Hasta: 18/01/2026</x:t>
   </x:si>
   <x:si>
     <x:t>Sucursales: PASADENA</x:t>
@@ -559,6 +559,12 @@
     <x:t>PASTELERIA</x:t>
   </x:si>
   <x:si>
+    <x:t>COOKIE OREO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BUDIN LIMON</x:t>
+  </x:si>
+  <x:si>
     <x:t>ALFAJOR ALMENDRAS</x:t>
   </x:si>
   <x:si>
@@ -761,6 +767,9 @@
   </x:si>
   <x:si>
     <x:t>CHICKEN ESPECIAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> SANDWICH ESPECIAL</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> SANDWICH POLLO</x:t>
@@ -905,8 +914,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E251" totalsRowShown="0">
-  <x:autoFilter ref="A4:E251"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E254" totalsRowShown="0">
+  <x:autoFilter ref="A4:E254"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="FAMILIA"/>
     <x:tableColumn id="2" name="CODIGO"/>
@@ -1206,7 +1215,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E251"/>
+  <x:dimension ref="A1:E254"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1261,10 +1270,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>55200</x:v>
+        <x:v>62100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1312,10 +1321,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>464300</x:v>
+        <x:v>482600</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1329,10 +1338,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>54000</x:v>
+        <x:v>72000</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -1431,10 +1440,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>539</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>2317700</x:v>
+        <x:v>2390800</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1448,10 +1457,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>866400</x:v>
+        <x:v>894900</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1465,10 +1474,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>159200</x:v>
+        <x:v>175400</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1482,10 +1491,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>89000</x:v>
+        <x:v>95400</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1499,10 +1508,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>176400</x:v>
+        <x:v>197400</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1516,10 +1525,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>85800</x:v>
+        <x:v>91800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1533,10 +1542,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>33860</x:v>
+        <x:v>49660</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1550,10 +1559,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>34500</x:v>
+        <x:v>46000</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1567,10 +1576,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>273000</x:v>
+        <x:v>312000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1584,10 +1593,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>783200</x:v>
+        <x:v>811200</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1601,10 +1610,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>1345600</x:v>
+        <x:v>1384000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1618,10 +1627,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>37800</x:v>
+        <x:v>42600</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1652,10 +1661,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>967300</x:v>
+        <x:v>996800</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1669,10 +1678,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>101000</x:v>
+        <x:v>108500</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1703,10 +1712,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>75600</x:v>
+        <x:v>81900</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1720,10 +1729,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>340600</x:v>
+        <x:v>355800</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1805,10 +1814,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>293000</x:v>
+        <x:v>299600</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -1822,10 +1831,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>703500</x:v>
+        <x:v>715200</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -1873,10 +1882,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>262900</x:v>
+        <x:v>282500</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
@@ -1907,10 +1916,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>43600</x:v>
+        <x:v>49300</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
@@ -2077,10 +2086,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>441000</x:v>
+        <x:v>480600</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
@@ -2179,10 +2188,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>44600</x:v>
+        <x:v>69100</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
@@ -2315,10 +2324,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>31800</x:v>
+        <x:v>47700</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
@@ -2400,10 +2409,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>282000</x:v>
+        <x:v>304500</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
@@ -2417,10 +2426,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>322000</x:v>
+        <x:v>343500</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
@@ -2621,10 +2630,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>30600</x:v>
+        <x:v>45900</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
@@ -2638,10 +2647,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>431600</x:v>
+        <x:v>436800</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
@@ -2672,10 +2681,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>126900</x:v>
+        <x:v>136800</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
@@ -2689,10 +2698,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>132500</x:v>
+        <x:v>143500</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
@@ -2791,10 +2800,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>118800</x:v>
+        <x:v>123200</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
@@ -2825,10 +2834,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>138700</x:v>
+        <x:v>153300</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
@@ -2859,10 +2868,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>98400</x:v>
+        <x:v>123000</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
@@ -2876,10 +2885,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>106600</x:v>
+        <x:v>114800</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
@@ -2893,10 +2902,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>83600</x:v>
+        <x:v>91200</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
@@ -2910,10 +2919,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>158700</x:v>
+        <x:v>165600</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
@@ -3012,10 +3021,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>42500</x:v>
+        <x:v>51000</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
@@ -3080,10 +3089,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>16200</x:v>
+        <x:v>48600</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
@@ -3114,10 +3123,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>56700</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
@@ -3148,10 +3157,10 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>448500</x:v>
+        <x:v>473100</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
@@ -3165,10 +3174,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>230800</x:v>
+        <x:v>239300</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
@@ -3182,10 +3191,10 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>291300</x:v>
+        <x:v>310500</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
@@ -3199,10 +3208,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>416000</x:v>
+        <x:v>435500</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
@@ -3233,10 +3242,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>166000</x:v>
+        <x:v>174300</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
@@ -3267,10 +3276,10 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>147800</x:v>
+        <x:v>156600</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
@@ -3284,10 +3293,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>187700</x:v>
+        <x:v>217500</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
@@ -3301,10 +3310,10 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>190500</x:v>
+        <x:v>218300</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
@@ -3369,10 +3378,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>91200</x:v>
+        <x:v>107100</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
@@ -3454,10 +3463,10 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
-        <x:v>50900</x:v>
+        <x:v>68400</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
@@ -3471,10 +3480,10 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
-        <x:v>469300</x:v>
+        <x:v>514800</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
@@ -3488,10 +3497,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
-        <x:v>341100</x:v>
+        <x:v>355500</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:5">
@@ -3505,10 +3514,10 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
-        <x:v>119400</x:v>
+        <x:v>158900</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
@@ -3522,10 +3531,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
-        <x:v>7500</x:v>
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
@@ -3539,10 +3548,10 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
-        <x:v>177600</x:v>
+        <x:v>201300</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:5">
@@ -3556,10 +3565,10 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
-        <x:v>60200</x:v>
+        <x:v>83900</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
@@ -3573,10 +3582,10 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
-        <x:v>127800</x:v>
+        <x:v>153000</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:5">
@@ -3590,10 +3599,10 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
-        <x:v>113400</x:v>
+        <x:v>129900</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
@@ -3624,10 +3633,10 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
-        <x:v>541100</x:v>
+        <x:v>575600</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:5">
@@ -3675,10 +3684,10 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
-        <x:v>108300</x:v>
+        <x:v>125700</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:5">
@@ -3743,10 +3752,10 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
-        <x:v>158400</x:v>
+        <x:v>162800</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:5">
@@ -3794,10 +3803,10 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
-        <x:v>37100</x:v>
+        <x:v>44600</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:5">
@@ -3811,10 +3820,10 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
-        <x:v>146600</x:v>
+        <x:v>179800</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:5">
@@ -3828,10 +3837,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
-        <x:v>65600</x:v>
+        <x:v>82200</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:5">
@@ -3862,10 +3871,10 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
-        <x:v>65200</x:v>
+        <x:v>73500</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:5">
@@ -3879,10 +3888,10 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
-        <x:v>1178500</x:v>
+        <x:v>1195900</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:5">
@@ -3930,10 +3939,10 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
-        <x:v>90800</x:v>
+        <x:v>98400</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:5">
@@ -3947,10 +3956,10 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
-        <x:v>320300</x:v>
+        <x:v>344000</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:5">
@@ -3958,16 +3967,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
-        <x:v>16500</x:v>
+        <x:v>5100</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:5">
@@ -3975,16 +3984,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
-        <x:v>37600</x:v>
+        <x:v>5500</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:5">
@@ -3992,16 +4001,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
-        <x:v>22800</x:v>
+        <x:v>16500</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:5">
@@ -4009,16 +4018,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
-        <x:v>15300</x:v>
+        <x:v>37600</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:5">
@@ -4026,16 +4035,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
-        <x:v>603500</x:v>
+        <x:v>22800</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:5">
@@ -4043,16 +4052,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
-        <x:v>24950</x:v>
+        <x:v>15300</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:5">
@@ -4060,16 +4069,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
-        <x:v>98400</x:v>
+        <x:v>622200</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:5">
@@ -4077,16 +4086,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>29940</x:v>
+        <x:v>24950</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:5">
@@ -4094,16 +4103,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
-        <x:v>10600</x:v>
+        <x:v>102500</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5">
@@ -4111,16 +4120,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
-        <x:v>23500</x:v>
+        <x:v>29940</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:5">
@@ -4128,16 +4137,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
-        <x:v>151800</x:v>
+        <x:v>15900</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:5">
@@ -4145,16 +4154,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
-        <x:v>55000</x:v>
+        <x:v>23500</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:5">
@@ -4162,16 +4171,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
-        <x:v>34930</x:v>
+        <x:v>158700</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:5">
@@ -4179,16 +4188,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
-        <x:v>27500</x:v>
+        <x:v>55000</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:5">
@@ -4196,16 +4205,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
-        <x:v>14400</x:v>
+        <x:v>34930</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:5">
@@ -4213,16 +4222,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
-        <x:v>31500</x:v>
+        <x:v>27500</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:5">
@@ -4230,16 +4239,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
-        <x:v>34200</x:v>
+        <x:v>14400</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:5">
@@ -4247,16 +4256,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
-        <x:v>36000</x:v>
+        <x:v>31500</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:5">
@@ -4264,16 +4273,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
-        <x:v>56800</x:v>
+        <x:v>34200</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:5">
@@ -4281,16 +4290,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
-        <x:v>49200</x:v>
+        <x:v>36000</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:5">
@@ -4298,16 +4307,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
-        <x:v>52500</x:v>
+        <x:v>56800</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:5">
@@ -4315,16 +4324,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
-        <x:v>27500</x:v>
+        <x:v>57400</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:5">
@@ -4332,16 +4341,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>52500</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:5">
@@ -4349,7 +4358,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>202</x:v>
@@ -4358,313 +4367,313 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
-        <x:v>32000</x:v>
+        <x:v>27500</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B188" s="0" t="n">
-        <x:v>901</x:v>
-      </x:c>
-      <x:c r="C188" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>114.1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
-        <x:v>2482290</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>902</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
-        <x:v>919000</x:v>
+        <x:v>32000</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
-        <x:v>222200</x:v>
+        <x:v>2591190</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>908</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
-        <x:v>72000</x:v>
+        <x:v>919000</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="n">
+        <x:v>903</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="B192" s="0" t="n">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="C192" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
-        <x:v>105100</x:v>
+        <x:v>222200</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
-        <x:v>471</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
-        <x:v>26000</x:v>
+        <x:v>72000</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
-        <x:v>474</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
-        <x:v>24600</x:v>
+        <x:v>111000</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
-        <x:v>475</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
-        <x:v>12000</x:v>
+        <x:v>26000</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="B196" s="0" t="n">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C196" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
-        <x:v>520000</x:v>
+        <x:v>28900</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
-        <x:v>102000</x:v>
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
-        <x:v>133000</x:v>
+        <x:v>526500</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
-        <x:v>247000</x:v>
+        <x:v>102000</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:5">
       <x:c r="A200" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
-        <x:v>19000</x:v>
+        <x:v>133000</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:5">
       <x:c r="A201" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
-        <x:v>7900</x:v>
+        <x:v>247000</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:5">
       <x:c r="A202" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B202" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
-        <x:v>73600</x:v>
+        <x:v>19000</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:5">
       <x:c r="A203" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B203" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
-        <x:v>45000</x:v>
+        <x:v>7900</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:5">
       <x:c r="A204" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C204" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="B204" s="0" t="n">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C204" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
-        <x:v>20000</x:v>
+        <x:v>73600</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:5">
       <x:c r="A205" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B205" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
-        <x:v>21600</x:v>
+        <x:v>45000</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:5">
@@ -4672,302 +4681,302 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="B206" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
-        <x:v>21700</x:v>
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:5">
       <x:c r="A207" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B207" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>21600</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:5">
       <x:c r="A208" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B208" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
-        <x:v>11600</x:v>
+        <x:v>24800</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:5">
       <x:c r="A209" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B209" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
-        <x:v>75000</x:v>
+        <x:v>8000</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:5">
       <x:c r="A210" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B210" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
-        <x:v>24200</x:v>
+        <x:v>11600</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:5">
       <x:c r="A211" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B211" s="0" t="n">
-        <x:v>406</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
-        <x:v>3900</x:v>
+        <x:v>78000</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:5">
       <x:c r="A212" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B212" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
-        <x:v>7800</x:v>
+        <x:v>24200</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:5">
       <x:c r="A213" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B213" s="0" t="n">
-        <x:v>409</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
-        <x:v>18400</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:5">
       <x:c r="A214" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B214" s="0" t="n">
-        <x:v>411</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:5">
       <x:c r="A215" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B215" s="0" t="n">
-        <x:v>412</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
-        <x:v>66300</x:v>
+        <x:v>18400</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:5">
       <x:c r="A216" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B216" s="0" t="n">
-        <x:v>413</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
-        <x:v>11700</x:v>
+        <x:v>8000</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:5">
       <x:c r="A217" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B217" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E217" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>66300</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:5">
       <x:c r="A218" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B218" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
-        <x:v>17700</x:v>
+        <x:v>11700</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:5">
       <x:c r="A219" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B219" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
-        <x:v>23600</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:5">
       <x:c r="A220" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B220" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>17700</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:5">
       <x:c r="A221" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="n">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="C221" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="B221" s="0" t="n">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C221" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23600</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:5">
       <x:c r="A222" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B222" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:5">
       <x:c r="A223" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B223" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
         <x:v>0</x:v>
@@ -4975,478 +4984,529 @@
     </x:row>
     <x:row r="224" spans="1:5">
       <x:c r="A224" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C224" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="B224" s="0" t="n">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="C224" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
-        <x:v>99000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:5">
       <x:c r="A225" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B225" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
-        <x:v>185600</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:5">
       <x:c r="A226" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B226" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
-        <x:v>170400</x:v>
+        <x:v>99000</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:5">
       <x:c r="A227" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B227" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
-        <x:v>143000</x:v>
+        <x:v>197200</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:5">
       <x:c r="A228" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B228" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
-        <x:v>85400</x:v>
+        <x:v>170400</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:5">
       <x:c r="A229" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="n">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C229" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="B229" s="0" t="n">
-        <x:v>600</x:v>
-      </x:c>
-      <x:c r="C229" s="0" t="s">
-        <x:v>251</x:v>
-      </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
-        <x:v>3700</x:v>
+        <x:v>165000</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:5">
       <x:c r="A230" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B230" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
-        <x:v>100300</x:v>
+        <x:v>15200</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:5">
       <x:c r="A231" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="n">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="B231" s="0" t="n">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C231" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
-        <x:v>67500</x:v>
+        <x:v>85400</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:5">
       <x:c r="A232" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B232" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
-        <x:v>107200</x:v>
+        <x:v>3700</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:5">
       <x:c r="A233" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B233" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
-        <x:v>30800</x:v>
+        <x:v>130100</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:5">
       <x:c r="A234" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
-        <x:v>12900</x:v>
+        <x:v>81400</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:5">
       <x:c r="A235" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
-        <x:v>171800</x:v>
+        <x:v>121100</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:5">
       <x:c r="A236" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
-        <x:v>109300</x:v>
+        <x:v>46700</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:5">
       <x:c r="A237" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B237" s="0" t="n">
-        <x:v>601</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E237" s="0" t="n">
-        <x:v>35200</x:v>
+        <x:v>12900</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:5">
       <x:c r="A238" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B238" s="0" t="n">
-        <x:v>602</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
-        <x:v>17400</x:v>
+        <x:v>171800</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:5">
       <x:c r="A239" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B239" s="0" t="n">
-        <x:v>603</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
-        <x:v>66600</x:v>
+        <x:v>109300</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:5">
       <x:c r="A240" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B240" s="0" t="n">
-        <x:v>604</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
-        <x:v>18000</x:v>
+        <x:v>35200</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:5">
       <x:c r="A241" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B241" s="0" t="n">
-        <x:v>605</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
-        <x:v>59100</x:v>
+        <x:v>17400</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:5">
       <x:c r="A242" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B242" s="0" t="n">
-        <x:v>606</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
-        <x:v>18200</x:v>
+        <x:v>84000</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:5">
       <x:c r="A243" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="n">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="C243" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B243" s="0" t="n">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C243" s="0" t="s">
-        <x:v>267</x:v>
-      </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
-        <x:v>347100</x:v>
+        <x:v>18000</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:5">
       <x:c r="A244" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B244" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
-        <x:v>33600</x:v>
+        <x:v>67800</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:5">
       <x:c r="A245" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B245" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
-        <x:v>4800</x:v>
+        <x:v>27300</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:5">
       <x:c r="A246" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B246" s="0" t="n">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
-        <x:v>139200</x:v>
+        <x:v>347100</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:5">
       <x:c r="A247" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B247" s="0" t="n">
-        <x:v>223</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>271</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>120.7</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
-        <x:v>1092690</x:v>
+        <x:v>33600</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:5">
       <x:c r="A248" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B248" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
-        <x:v>416400</x:v>
+        <x:v>14400</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:5">
       <x:c r="A249" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B249" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
-        <x:v>446310</x:v>
+        <x:v>139200</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:5">
       <x:c r="A250" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B250" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>122.7</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
-        <x:v>102600</x:v>
+        <x:v>1111290</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:5">
       <x:c r="A251" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B251" s="0" t="n">
-        <x:v>999999</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E251" s="0" t="n">
-        <x:v>-191910.2</x:v>
+        <x:v>444300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:5">
+      <x:c r="A252" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="n">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D252" s="0" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E252" s="0" t="n">
+        <x:v>455810</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:5">
+      <x:c r="A253" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="n">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="D253" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="n">
+        <x:v>102600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:5">
+      <x:c r="A254" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="n">
+        <x:v>999999</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="D254" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="n">
+        <x:v>-196300.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
